--- a/fdaf.xlsx
+++ b/fdaf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Git Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CC2AA-828B-4C03-9E47-B6BA1604B072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F77E7F1-EF10-4B56-91AD-B53ABE68DD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="110" windowWidth="18990" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>fsadf</t>
+    <t>fdsaf</t>
   </si>
 </sst>
 </file>

--- a/fdaf.xlsx
+++ b/fdaf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Git Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F77E7F1-EF10-4B56-91AD-B53ABE68DD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FA0249-ACAF-46D2-94F3-E2641FEF0C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="110" windowWidth="18990" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>fdsaf</t>
+    <t>fsadf</t>
   </si>
 </sst>
 </file>
